--- a/DebateList/DebateList.xlsx
+++ b/DebateList/DebateList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="348" windowWidth="22692" windowHeight="9792" activeTab="1"/>
+    <workbookView xWindow="285" yWindow="345" windowWidth="22695" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,9 +591,6 @@
     <t>2012RHanoverNH</t>
   </si>
   <si>
-    <t>2012		OrlandFL</t>
-  </si>
-  <si>
     <t>2012RSimiValleyCA</t>
   </si>
   <si>
@@ -843,9 +840,6 @@
     <t>1976PSanFranciscoCA</t>
   </si>
   <si>
-    <t>1976PPresidentialCampaignPhiladelphia</t>
-  </si>
-  <si>
     <t>1976VHoustonTX</t>
   </si>
   <si>
@@ -859,16 +853,23 @@
   </si>
   <si>
     <t>1960PChicagoIL</t>
+  </si>
+  <si>
+    <t>2012ROrlandoFL</t>
+  </si>
+  <si>
+    <t>1976PPhiladelphiaPN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,17 +911,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -999,6 +1006,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1033,6 +1041,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1208,27 +1217,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1270,7 +1279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1419,21 +1428,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1447,88 +1456,88 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>42266</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>42652</v>
       </c>
       <c r="D3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>42639</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>42647</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>42438</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>42411</v>
       </c>
       <c r="D7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>42386</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>42357</v>
       </c>
       <c r="C9">
@@ -1538,11 +1547,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>42322</v>
       </c>
       <c r="C10">
@@ -1552,11 +1561,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>42290</v>
       </c>
       <c r="C11">
@@ -1566,86 +1575,88 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>42439</v>
       </c>
       <c r="D12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>42426</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>42413</v>
       </c>
       <c r="D15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>42406</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>42397</v>
       </c>
       <c r="D17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>42383</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>163</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>42353</v>
       </c>
       <c r="C19">
@@ -1655,11 +1666,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>42318</v>
       </c>
       <c r="C20">
@@ -1669,11 +1680,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>42305</v>
       </c>
       <c r="C21">
@@ -1683,11 +1694,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>42263</v>
       </c>
       <c r="C22">
@@ -1697,11 +1708,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>42222</v>
       </c>
       <c r="C23">
@@ -1711,11 +1722,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>42353</v>
       </c>
       <c r="C24">
@@ -1725,11 +1736,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>42318</v>
       </c>
       <c r="C25">
@@ -1739,11 +1750,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>42305</v>
       </c>
       <c r="C26">
@@ -1753,11 +1764,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>42263</v>
       </c>
       <c r="C27">
@@ -1767,11 +1778,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>42222</v>
       </c>
       <c r="C28">
@@ -1781,11 +1792,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>41204</v>
       </c>
       <c r="C29">
@@ -1795,11 +1806,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>41198</v>
       </c>
       <c r="C30">
@@ -1809,11 +1820,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>175</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>41185</v>
       </c>
       <c r="C31">
@@ -1823,11 +1834,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>41193</v>
       </c>
       <c r="C32">
@@ -1837,11 +1848,11 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>40961</v>
       </c>
       <c r="C33">
@@ -1851,11 +1862,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>40934</v>
       </c>
       <c r="C34">
@@ -1865,11 +1876,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>40931</v>
       </c>
       <c r="C35">
@@ -1879,11 +1890,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>40927</v>
       </c>
       <c r="C36">
@@ -1893,11 +1904,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>40924</v>
       </c>
       <c r="C37">
@@ -1907,11 +1918,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>40916</v>
       </c>
       <c r="C38">
@@ -1921,11 +1932,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.6">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>183</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>40915</v>
       </c>
       <c r="C39">
@@ -1935,11 +1946,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.6">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>40892</v>
       </c>
       <c r="C40">
@@ -1949,11 +1960,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.6">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>40887</v>
       </c>
       <c r="C41">
@@ -1963,11 +1974,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.6">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>40869</v>
       </c>
       <c r="C42">
@@ -1977,11 +1988,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.6">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>187</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>40859</v>
       </c>
       <c r="C43">
@@ -1991,11 +2002,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.6">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>40856</v>
       </c>
       <c r="C44">
@@ -2005,11 +2016,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.6">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>40834</v>
       </c>
       <c r="C45">
@@ -2019,11 +2030,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.6">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>40827</v>
       </c>
       <c r="C46">
@@ -2033,11 +2044,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.6">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="1">
+        <v>279</v>
+      </c>
+      <c r="B47" s="4">
         <v>40808</v>
       </c>
       <c r="C47">
@@ -2047,11 +2058,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.6">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>179</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>40798</v>
       </c>
       <c r="C48">
@@ -2061,11 +2072,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" s="1">
+        <v>191</v>
+      </c>
+      <c r="B49" s="4">
         <v>40793</v>
       </c>
       <c r="C49">
@@ -2075,11 +2086,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" s="1">
+        <v>192</v>
+      </c>
+      <c r="B50" s="4">
         <v>40791</v>
       </c>
       <c r="C50">
@@ -2089,11 +2100,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.6">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="1">
+        <v>193</v>
+      </c>
+      <c r="B51" s="4">
         <v>40766</v>
       </c>
       <c r="C51">
@@ -2103,11 +2114,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6">
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="4">
         <v>40707</v>
       </c>
       <c r="C52">
@@ -2117,11 +2128,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.6">
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="1">
+        <v>194</v>
+      </c>
+      <c r="B53" s="4">
         <v>39736</v>
       </c>
       <c r="C53">
@@ -2131,11 +2142,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6">
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="1">
+        <v>195</v>
+      </c>
+      <c r="B54" s="4">
         <v>39728</v>
       </c>
       <c r="C54">
@@ -2145,11 +2156,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.6">
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="1">
+        <v>196</v>
+      </c>
+      <c r="B55" s="4">
         <v>39717</v>
       </c>
       <c r="C55">
@@ -2159,11 +2170,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.6">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>198</v>
-      </c>
-      <c r="B56" s="1">
+        <v>197</v>
+      </c>
+      <c r="B56" s="4">
         <v>39723</v>
       </c>
       <c r="C56">
@@ -2173,11 +2184,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.6">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="1">
+        <v>198</v>
+      </c>
+      <c r="B57" s="4">
         <v>39554</v>
       </c>
       <c r="C57">
@@ -2187,11 +2198,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.6">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>200</v>
-      </c>
-      <c r="B58" s="1">
+        <v>199</v>
+      </c>
+      <c r="B58" s="4">
         <v>39504</v>
       </c>
       <c r="C58">
@@ -2201,11 +2212,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.6">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="1">
+        <v>200</v>
+      </c>
+      <c r="B59" s="4">
         <v>39499</v>
       </c>
       <c r="C59">
@@ -2215,11 +2226,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.6">
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>202</v>
-      </c>
-      <c r="B60" s="1">
+        <v>201</v>
+      </c>
+      <c r="B60" s="4">
         <v>39478</v>
       </c>
       <c r="C60">
@@ -2229,11 +2240,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.6">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="1">
+        <v>202</v>
+      </c>
+      <c r="B61" s="4">
         <v>39468</v>
       </c>
       <c r="C61">
@@ -2243,11 +2254,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.6">
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>204</v>
-      </c>
-      <c r="B62" s="1">
+        <v>203</v>
+      </c>
+      <c r="B62" s="4">
         <v>39462</v>
       </c>
       <c r="C62">
@@ -2257,11 +2268,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.6">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" s="1">
+        <v>204</v>
+      </c>
+      <c r="B63" s="4">
         <v>39452</v>
       </c>
       <c r="C63">
@@ -2271,11 +2282,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.6">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="1">
+        <v>205</v>
+      </c>
+      <c r="B64" s="4">
         <v>39429</v>
       </c>
       <c r="C64">
@@ -2285,11 +2296,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.6">
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="1">
+        <v>206</v>
+      </c>
+      <c r="B65" s="4">
         <v>39420</v>
       </c>
       <c r="C65">
@@ -2299,11 +2310,11 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.6">
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="1">
+        <v>203</v>
+      </c>
+      <c r="B66" s="4">
         <v>39401</v>
       </c>
       <c r="C66">
@@ -2313,11 +2324,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.6">
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>199</v>
-      </c>
-      <c r="B67" s="1">
+        <v>198</v>
+      </c>
+      <c r="B67" s="4">
         <v>39385</v>
       </c>
       <c r="C67">
@@ -2327,11 +2338,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.6">
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>208</v>
-      </c>
-      <c r="B68" s="1">
+        <v>207</v>
+      </c>
+      <c r="B68" s="4">
         <v>39351</v>
       </c>
       <c r="C68">
@@ -2341,11 +2352,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.6">
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>209</v>
-      </c>
-      <c r="B69" s="1">
+        <v>208</v>
+      </c>
+      <c r="B69" s="4">
         <v>39334</v>
       </c>
       <c r="C69">
@@ -2355,11 +2366,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.6">
+    <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>207</v>
-      </c>
-      <c r="B70" s="1">
+        <v>206</v>
+      </c>
+      <c r="B70" s="4">
         <v>39313</v>
       </c>
       <c r="C70">
@@ -2369,11 +2380,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.6">
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" s="1">
+        <v>209</v>
+      </c>
+      <c r="B71" s="4">
         <v>39301</v>
       </c>
       <c r="C71">
@@ -2383,11 +2394,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.6">
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>211</v>
-      </c>
-      <c r="B72" s="1">
+        <v>210</v>
+      </c>
+      <c r="B72" s="4">
         <v>39286</v>
       </c>
       <c r="C72">
@@ -2397,11 +2408,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.6">
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>212</v>
-      </c>
-      <c r="B73" s="1">
+        <v>211</v>
+      </c>
+      <c r="B73" s="4">
         <v>39261</v>
       </c>
       <c r="C73">
@@ -2411,11 +2422,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.6">
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>205</v>
-      </c>
-      <c r="B74" s="1">
+        <v>204</v>
+      </c>
+      <c r="B74" s="4">
         <v>39236</v>
       </c>
       <c r="C74">
@@ -2425,11 +2436,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.6">
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>213</v>
-      </c>
-      <c r="B75" s="1">
+        <v>212</v>
+      </c>
+      <c r="B75" s="4">
         <v>39198</v>
       </c>
       <c r="C75">
@@ -2439,11 +2450,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.6">
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>214</v>
-      </c>
-      <c r="B76" s="1">
+        <v>213</v>
+      </c>
+      <c r="B76" s="4">
         <v>39477</v>
       </c>
       <c r="C76">
@@ -2453,11 +2464,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.6">
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="1">
+        <v>214</v>
+      </c>
+      <c r="B77" s="4">
         <v>39471</v>
       </c>
       <c r="C77">
@@ -2467,11 +2478,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.6">
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>216</v>
-      </c>
-      <c r="B78" s="1">
+        <v>215</v>
+      </c>
+      <c r="B78" s="4">
         <v>39457</v>
       </c>
       <c r="C78">
@@ -2481,11 +2492,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.6">
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>217</v>
-      </c>
-      <c r="B79" s="1">
+        <v>216</v>
+      </c>
+      <c r="B79" s="4">
         <v>39453</v>
       </c>
       <c r="C79">
@@ -2495,11 +2506,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.6">
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>218</v>
-      </c>
-      <c r="B80" s="1">
+        <v>217</v>
+      </c>
+      <c r="B80" s="4">
         <v>39452</v>
       </c>
       <c r="C80">
@@ -2509,11 +2520,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6">
+    <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>219</v>
-      </c>
-      <c r="B81" s="1">
+        <v>218</v>
+      </c>
+      <c r="B81" s="4">
         <v>39428</v>
       </c>
       <c r="C81">
@@ -2523,11 +2534,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.6">
+    <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>220</v>
-      </c>
-      <c r="B82" s="1">
+        <v>219</v>
+      </c>
+      <c r="B82" s="4">
         <v>39425</v>
       </c>
       <c r="C82">
@@ -2537,11 +2548,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.6">
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="1">
+        <v>220</v>
+      </c>
+      <c r="B83" s="4">
         <v>39414</v>
       </c>
       <c r="C83">
@@ -2551,11 +2562,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.6">
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B84" s="1">
+        <v>221</v>
+      </c>
+      <c r="B84" s="4">
         <v>39376</v>
       </c>
       <c r="C84">
@@ -2565,11 +2576,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.6">
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>223</v>
-      </c>
-      <c r="B85" s="1">
+        <v>222</v>
+      </c>
+      <c r="B85" s="4">
         <v>39364</v>
       </c>
       <c r="C85">
@@ -2579,11 +2590,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.6">
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>224</v>
-      </c>
-      <c r="B86" s="1">
+        <v>223</v>
+      </c>
+      <c r="B86" s="4">
         <v>39352</v>
       </c>
       <c r="C86">
@@ -2593,11 +2604,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.6">
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>225</v>
-      </c>
-      <c r="B87" s="1">
+        <v>224</v>
+      </c>
+      <c r="B87" s="4">
         <v>39330</v>
       </c>
       <c r="C87">
@@ -2607,11 +2618,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.6">
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>226</v>
-      </c>
-      <c r="B88" s="1">
+        <v>225</v>
+      </c>
+      <c r="B88" s="4">
         <v>39299</v>
       </c>
       <c r="C88">
@@ -2621,11 +2632,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.6">
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>218</v>
-      </c>
-      <c r="B89" s="1">
+        <v>217</v>
+      </c>
+      <c r="B89" s="4">
         <v>39238</v>
       </c>
       <c r="C89">
@@ -2635,11 +2646,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.6">
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" s="1">
+        <v>226</v>
+      </c>
+      <c r="B90" s="4">
         <v>39217</v>
       </c>
       <c r="C90">
@@ -2649,11 +2660,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.6">
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>214</v>
-      </c>
-      <c r="B91" s="1">
+        <v>213</v>
+      </c>
+      <c r="B91" s="4">
         <v>39205</v>
       </c>
       <c r="C91">
@@ -2663,11 +2674,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.6">
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>228</v>
-      </c>
-      <c r="B92" s="1">
+        <v>227</v>
+      </c>
+      <c r="B92" s="4">
         <v>38273</v>
       </c>
       <c r="C92">
@@ -2677,11 +2688,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.6">
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>229</v>
-      </c>
-      <c r="B93" s="1">
+        <v>228</v>
+      </c>
+      <c r="B93" s="4">
         <v>38268</v>
       </c>
       <c r="C93">
@@ -2691,11 +2702,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.6">
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>230</v>
-      </c>
-      <c r="B94" s="1">
+        <v>229</v>
+      </c>
+      <c r="B94" s="4">
         <v>38260</v>
       </c>
       <c r="C94">
@@ -2705,11 +2716,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.6">
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>231</v>
-      </c>
-      <c r="B95" s="1">
+        <v>230</v>
+      </c>
+      <c r="B95" s="4">
         <v>38265</v>
       </c>
       <c r="C95">
@@ -2719,11 +2730,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.6">
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>232</v>
-      </c>
-      <c r="B96" s="1">
+        <v>231</v>
+      </c>
+      <c r="B96" s="4">
         <v>38015</v>
       </c>
       <c r="C96">
@@ -2733,11 +2744,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.6">
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>233</v>
-      </c>
-      <c r="B97" s="1">
+        <v>232</v>
+      </c>
+      <c r="B97" s="4">
         <v>38008</v>
       </c>
       <c r="C97">
@@ -2747,11 +2758,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.6">
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>234</v>
-      </c>
-      <c r="B98" s="1">
+        <v>233</v>
+      </c>
+      <c r="B98" s="4">
         <v>36816</v>
       </c>
       <c r="C98">
@@ -2761,11 +2772,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.6">
+    <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>235</v>
-      </c>
-      <c r="B99" s="1">
+        <v>234</v>
+      </c>
+      <c r="B99" s="4">
         <v>36810</v>
       </c>
       <c r="C99">
@@ -2775,11 +2786,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.6">
+    <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>236</v>
-      </c>
-      <c r="B100" s="1">
+        <v>235</v>
+      </c>
+      <c r="B100" s="4">
         <v>36802</v>
       </c>
       <c r="C100">
@@ -2789,11 +2800,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.6">
+    <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>237</v>
-      </c>
-      <c r="B101" s="1">
+        <v>236</v>
+      </c>
+      <c r="B101" s="4">
         <v>36804</v>
       </c>
       <c r="C101">
@@ -2803,11 +2814,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.6">
+    <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>238</v>
-      </c>
-      <c r="B102" s="1">
+        <v>237</v>
+      </c>
+      <c r="B102" s="4">
         <v>36586</v>
       </c>
       <c r="C102">
@@ -2817,11 +2828,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.6">
+    <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>239</v>
-      </c>
-      <c r="B103" s="1">
+        <v>238</v>
+      </c>
+      <c r="B103" s="4">
         <v>36577</v>
       </c>
       <c r="C103">
@@ -2831,11 +2842,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.6">
+    <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>240</v>
-      </c>
-      <c r="B104" s="1">
+        <v>239</v>
+      </c>
+      <c r="B104" s="4">
         <v>36551</v>
       </c>
       <c r="C104">
@@ -2845,11 +2856,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.6">
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>241</v>
-      </c>
-      <c r="B105" s="1">
+        <v>240</v>
+      </c>
+      <c r="B105" s="4">
         <v>36542</v>
       </c>
       <c r="C105">
@@ -2859,11 +2870,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.6">
+    <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>242</v>
-      </c>
-      <c r="B106" s="1">
+        <v>241</v>
+      </c>
+      <c r="B106" s="4">
         <v>36533</v>
       </c>
       <c r="C106">
@@ -2873,11 +2884,11 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.6">
+    <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>243</v>
-      </c>
-      <c r="B107" s="1">
+        <v>242</v>
+      </c>
+      <c r="B107" s="4">
         <v>36513</v>
       </c>
       <c r="C107">
@@ -2887,11 +2898,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.6">
+    <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>244</v>
-      </c>
-      <c r="B108" s="1">
+        <v>243</v>
+      </c>
+      <c r="B108" s="4">
         <v>36511</v>
       </c>
       <c r="C108">
@@ -2901,11 +2912,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.6">
+    <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>245</v>
-      </c>
-      <c r="B109" s="1">
+        <v>244</v>
+      </c>
+      <c r="B109" s="4">
         <v>36460</v>
       </c>
       <c r="C109">
@@ -2915,22 +2926,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.6">
+    <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>246</v>
-      </c>
-      <c r="B110" s="1">
+        <v>245</v>
+      </c>
+      <c r="B110" s="4">
         <v>36530</v>
       </c>
       <c r="D110" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.6">
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>247</v>
-      </c>
-      <c r="B111" s="1">
+        <v>246</v>
+      </c>
+      <c r="B111" s="4">
         <v>36587</v>
       </c>
       <c r="C111">
@@ -2940,11 +2951,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.6">
+    <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>248</v>
-      </c>
-      <c r="B112" s="1">
+        <v>247</v>
+      </c>
+      <c r="B112" s="4">
         <v>36571</v>
       </c>
       <c r="C112">
@@ -2954,11 +2965,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.6">
+    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>249</v>
-      </c>
-      <c r="B113" s="1">
+        <v>248</v>
+      </c>
+      <c r="B113" s="4">
         <v>36551</v>
       </c>
       <c r="C113">
@@ -2968,11 +2979,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.6">
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>250</v>
-      </c>
-      <c r="B114" s="1">
+        <v>249</v>
+      </c>
+      <c r="B114" s="4">
         <v>36540</v>
       </c>
       <c r="C114">
@@ -2982,11 +2993,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.6">
+    <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>251</v>
-      </c>
-      <c r="B115" s="1">
+        <v>250</v>
+      </c>
+      <c r="B115" s="4">
         <v>36535</v>
       </c>
       <c r="C115">
@@ -2996,11 +3007,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.6">
+    <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>248</v>
-      </c>
-      <c r="B116" s="1">
+        <v>247</v>
+      </c>
+      <c r="B116" s="4">
         <v>36532</v>
       </c>
       <c r="C116">
@@ -3010,11 +3021,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.6">
+    <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>252</v>
-      </c>
-      <c r="B117" s="1">
+        <v>251</v>
+      </c>
+      <c r="B117" s="4">
         <v>36507</v>
       </c>
       <c r="C117">
@@ -3024,11 +3035,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.6">
+    <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>253</v>
-      </c>
-      <c r="B118" s="1">
+        <v>252</v>
+      </c>
+      <c r="B118" s="4">
         <v>36500</v>
       </c>
       <c r="C118">
@@ -3038,11 +3049,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.6">
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>249</v>
-      </c>
-      <c r="B119" s="1">
+        <v>248</v>
+      </c>
+      <c r="B119" s="4">
         <v>36496</v>
       </c>
       <c r="C119">
@@ -3052,11 +3063,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.6">
+    <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>254</v>
-      </c>
-      <c r="B120" s="1">
+        <v>253</v>
+      </c>
+      <c r="B120" s="4">
         <v>36461</v>
       </c>
       <c r="C120">
@@ -3066,11 +3077,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.6">
+    <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>255</v>
-      </c>
-      <c r="B121" s="1">
+        <v>254</v>
+      </c>
+      <c r="B121" s="4">
         <v>36455</v>
       </c>
       <c r="C121">
@@ -3080,33 +3091,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.6">
+    <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>256</v>
-      </c>
-      <c r="B122" s="1">
+        <v>255</v>
+      </c>
+      <c r="B122" s="4">
         <v>36485</v>
       </c>
       <c r="D122" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.6">
+    <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>257</v>
-      </c>
-      <c r="B123" s="1">
+        <v>256</v>
+      </c>
+      <c r="B123" s="4">
         <v>36531</v>
       </c>
       <c r="D123" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.6">
+    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>258</v>
-      </c>
-      <c r="B124" s="1">
+        <v>257</v>
+      </c>
+      <c r="B124" s="4">
         <v>35354</v>
       </c>
       <c r="C124">
@@ -3116,11 +3127,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.6">
+    <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>259</v>
-      </c>
-      <c r="B125" s="1">
+        <v>258</v>
+      </c>
+      <c r="B125" s="4">
         <v>35344</v>
       </c>
       <c r="C125">
@@ -3130,11 +3141,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.6">
+    <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>260</v>
-      </c>
-      <c r="B126" s="1">
+        <v>259</v>
+      </c>
+      <c r="B126" s="4">
         <v>35347</v>
       </c>
       <c r="C126">
@@ -3144,11 +3155,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.6">
+    <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>261</v>
-      </c>
-      <c r="B127" s="1">
+        <v>260</v>
+      </c>
+      <c r="B127" s="4">
         <v>33896</v>
       </c>
       <c r="C127">
@@ -3158,11 +3169,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.6">
+    <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>262</v>
-      </c>
-      <c r="B128" s="1">
+        <v>261</v>
+      </c>
+      <c r="B128" s="4">
         <v>33892</v>
       </c>
       <c r="C128">
@@ -3172,11 +3183,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.6">
+    <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>263</v>
-      </c>
-      <c r="B129" s="1">
+        <v>262</v>
+      </c>
+      <c r="B129" s="4">
         <v>33888</v>
       </c>
       <c r="C129">
@@ -3186,11 +3197,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.6">
+    <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>264</v>
-      </c>
-      <c r="B130" s="1">
+        <v>263</v>
+      </c>
+      <c r="B130" s="4">
         <v>33890</v>
       </c>
       <c r="C130">
@@ -3200,11 +3211,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.6">
+    <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>265</v>
-      </c>
-      <c r="B131" s="1">
+        <v>264</v>
+      </c>
+      <c r="B131" s="4">
         <v>32429</v>
       </c>
       <c r="C131">
@@ -3214,11 +3225,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.6">
+    <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>266</v>
-      </c>
-      <c r="B132" s="1">
+        <v>265</v>
+      </c>
+      <c r="B132" s="4">
         <v>32411</v>
       </c>
       <c r="C132">
@@ -3228,11 +3239,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.6">
+    <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>267</v>
-      </c>
-      <c r="B133" s="1">
+        <v>266</v>
+      </c>
+      <c r="B133" s="4">
         <v>32421</v>
       </c>
       <c r="C133">
@@ -3242,11 +3253,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.6">
+    <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>268</v>
-      </c>
-      <c r="B134" s="1">
+        <v>267</v>
+      </c>
+      <c r="B134" s="4">
         <v>30976</v>
       </c>
       <c r="C134">
@@ -3256,11 +3267,11 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.6">
+    <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>269</v>
-      </c>
-      <c r="B135" s="1">
+        <v>268</v>
+      </c>
+      <c r="B135" s="4">
         <v>30962</v>
       </c>
       <c r="C135">
@@ -3270,11 +3281,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.6">
+    <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" s="1">
+        <v>269</v>
+      </c>
+      <c r="B136" s="4">
         <v>30966</v>
       </c>
       <c r="C136">
@@ -3284,11 +3295,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.6">
+    <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" s="1">
+        <v>270</v>
+      </c>
+      <c r="B137" s="4">
         <v>29522</v>
       </c>
       <c r="C137">
@@ -3298,11 +3309,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.6">
+    <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" s="1">
+        <v>271</v>
+      </c>
+      <c r="B138" s="4">
         <v>29485</v>
       </c>
       <c r="C138">
@@ -3312,11 +3323,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.6">
+    <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" s="1">
+        <v>272</v>
+      </c>
+      <c r="B139" s="4">
         <v>28055</v>
       </c>
       <c r="C139">
@@ -3326,11 +3337,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.6">
+    <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>274</v>
-      </c>
-      <c r="B140" s="1">
+        <v>273</v>
+      </c>
+      <c r="B140" s="4">
         <v>28039</v>
       </c>
       <c r="C140">
@@ -3340,11 +3351,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.6">
+    <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>275</v>
-      </c>
-      <c r="B141" s="1">
+        <v>280</v>
+      </c>
+      <c r="B141" s="4">
         <v>28026</v>
       </c>
       <c r="C141">
@@ -3354,11 +3365,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.6">
+    <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>276</v>
-      </c>
-      <c r="B142" s="1">
+        <v>274</v>
+      </c>
+      <c r="B142" s="4">
         <v>28048</v>
       </c>
       <c r="C142">
@@ -3368,11 +3379,11 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.6">
+    <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>277</v>
-      </c>
-      <c r="B143" s="1">
+        <v>275</v>
+      </c>
+      <c r="B143" s="4">
         <v>22210</v>
       </c>
       <c r="C143">
@@ -3382,11 +3393,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.6">
+    <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>278</v>
-      </c>
-      <c r="B144" s="1">
+        <v>276</v>
+      </c>
+      <c r="B144" s="4">
         <v>22202</v>
       </c>
       <c r="C144">
@@ -3396,11 +3407,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.6">
+    <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>279</v>
-      </c>
-      <c r="B145" s="1">
+        <v>277</v>
+      </c>
+      <c r="B145" s="4">
         <v>22196</v>
       </c>
       <c r="C145">
@@ -3410,11 +3421,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.6">
+    <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>280</v>
-      </c>
-      <c r="B146" s="1">
+        <v>278</v>
+      </c>
+      <c r="B146" s="4">
         <v>22185</v>
       </c>
       <c r="C146">
@@ -3424,10 +3435,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.6">
+    <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="15.6">
+    <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
     </row>
   </sheetData>
@@ -3436,12 +3447,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
